--- a/Measurement/C++ Performance Measurement.xlsx
+++ b/Measurement/C++ Performance Measurement.xlsx
@@ -1,26 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813E37EB-254A-484D-A3E2-52F83F1DF08B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Algorithm 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>Data Size</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>L1 Data Cache Misses</t>
+  </si>
+  <si>
+    <t>L2 Data Cache Misses</t>
+  </si>
+  <si>
+    <t>Cache Line Invalidation Requests</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>6K</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +69,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,12 +106,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +471,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
+        <v>600</v>
+      </c>
+      <c r="C1" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1400</v>
+      </c>
+      <c r="E1" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F1" s="7">
+        <v>2200</v>
+      </c>
+      <c r="G1" s="7">
+        <v>2600</v>
+      </c>
+      <c r="H1" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16.329000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>34.835000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>64.465999999999994</v>
+      </c>
+      <c r="G2" s="3">
+        <v>110.42400000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>187.24799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>219930245</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1070744282</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3390758032</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7488669343</v>
+      </c>
+      <c r="F3" s="3">
+        <v>14189756074</v>
+      </c>
+      <c r="G3" s="3">
+        <v>24283434191</v>
+      </c>
+      <c r="H3" s="3">
+        <v>38626141122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12884222</v>
+      </c>
+      <c r="C4" s="3">
+        <v>63232559</v>
+      </c>
+      <c r="D4" s="3">
+        <v>174339583</v>
+      </c>
+      <c r="E4" s="3">
+        <v>372383818</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1039308154</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4719187715</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19241777519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1372071</v>
+      </c>
+      <c r="C5" s="5">
+        <v>63353471</v>
+      </c>
+      <c r="D5" s="5">
+        <v>174802766</v>
+      </c>
+      <c r="E5" s="5">
+        <v>374010613</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1135410830</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5834313504</v>
+      </c>
+      <c r="H5" s="5">
+        <v>23230566886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE578F4-0DE5-462C-861D-A6E1D9FFE89A}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
+        <v>600</v>
+      </c>
+      <c r="C1" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1400</v>
+      </c>
+      <c r="E1" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F1" s="7">
+        <v>2200</v>
+      </c>
+      <c r="G1" s="7">
+        <v>2600</v>
+      </c>
+      <c r="H1" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I1" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J1" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K1" s="8">
+        <v>8000</v>
+      </c>
+      <c r="L1" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.504</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.228</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.29</v>
+      </c>
+      <c r="I2" s="3">
+        <v>16.117999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>59.264000000000003</v>
+      </c>
+      <c r="K2" s="3">
+        <v>140.84</v>
+      </c>
+      <c r="L2" s="3">
+        <v>276.58699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13530958</v>
+      </c>
+      <c r="C3" s="3">
+        <v>62632082</v>
+      </c>
+      <c r="D3" s="3">
+        <v>172277391</v>
+      </c>
+      <c r="E3" s="3">
+        <v>366329422</v>
+      </c>
+      <c r="F3" s="3">
+        <v>669114818</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1105380212</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1699008089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>302720</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1488011</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15983242</v>
+      </c>
+      <c r="E4" s="3">
+        <v>127458597</v>
+      </c>
+      <c r="F4" s="3">
+        <v>355443355</v>
+      </c>
+      <c r="G4" s="3">
+        <v>644293457</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1012018595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13579745</v>
+      </c>
+      <c r="C5" s="5">
+        <v>62716470</v>
+      </c>
+      <c r="D5" s="5">
+        <v>172412315</v>
+      </c>
+      <c r="E5" s="5">
+        <v>366907550</v>
+      </c>
+      <c r="F5" s="5">
+        <v>670627332</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1107185002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1702165744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41289A1E-3B78-4B7D-99F1-3FDA115CAE38}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Measurement/C++ Performance Measurement.xlsx
+++ b/Measurement/C++ Performance Measurement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813E37EB-254A-484D-A3E2-52F83F1DF08B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58468C01-DAA6-48B4-B6FB-51F00B29A022}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Data Size</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>10K</t>
+  </si>
+  <si>
+    <t>Block Size\Data Size</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,12 +837,18 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -857,16 +866,49 @@
       <c r="A2">
         <v>128</v>
       </c>
+      <c r="B2">
+        <v>26.37</v>
+      </c>
+      <c r="C2">
+        <v>87.391000000000005</v>
+      </c>
+      <c r="D2">
+        <v>209.76599999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>256</v>
       </c>
+      <c r="B3">
+        <v>24.9</v>
+      </c>
+      <c r="C3">
+        <v>87.281000000000006</v>
+      </c>
+      <c r="D3">
+        <v>211.23400000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>512</v>
       </c>
+      <c r="B4">
+        <v>20.655999999999999</v>
+      </c>
+      <c r="C4">
+        <v>75.796999999999997</v>
+      </c>
+      <c r="D4">
+        <v>190.40600000000001</v>
+      </c>
+      <c r="E4">
+        <v>380.34399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
@@ -876,5 +918,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>